--- a/biology/Zoologie/Hypsopygia_glaucinalis/Hypsopygia_glaucinalis.xlsx
+++ b/biology/Zoologie/Hypsopygia_glaucinalis/Hypsopygia_glaucinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrale glauque
 Hypsopygia glaucinalis, communément appelé la Pyrale glauque, est une espèce de lépidoptères (papillons) de la famille des Pyralidae.
@@ -512,7 +524,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Imagos visibles de juin à août.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitations, hangars, granges, etc.
 </t>
@@ -574,9 +590,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Végétaux secs, nids d'oiseaux, foin, etc[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Végétaux secs, nids d'oiseaux, foin, etc.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ocrasa glaucinalis (Linnaeus, 1758)[2]
-Orthopygia glaucinalis (Linnaeus, 1758)[2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ocrasa glaucinalis (Linnaeus, 1758)
+Orthopygia glaucinalis (Linnaeus, 1758)</t>
         </is>
       </c>
     </row>
